--- a/Softomation/Data/Bug Sheet.xlsx
+++ b/Softomation/Data/Bug Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Softomation\Projects\HighwaySoluations\Softomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED49AF3-02B5-4D86-A3DD-C7F4EC85AD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296DBF3-2DD3-429B-B65C-3C01D23C59F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>Bug_Id</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t xml:space="preserve">Working Fine </t>
   </si>
   <si>
@@ -261,13 +258,16 @@
   </si>
   <si>
     <t>last 24 hour vehcile count based on trans type</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,13 +290,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -326,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -334,6 +346,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -889,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -929,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,21 +987,21 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>52</v>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1047,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1049,7 +1063,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1067,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -1077,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,7 +1099,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
@@ -1095,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,7 +1117,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1111,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1119,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1127,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1135,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1151,7 +1165,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1167,7 +1181,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1183,7 +1197,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -1199,142 +1213,150 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="B39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
